--- a/mdm_t/atherosclerosis_review.xlsx
+++ b/mdm_t/atherosclerosis_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\CodeProjects\ACE\mdm_t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Documents\GitHub\ACES\mdm_t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7C863-5128-4FDB-9351-65C6EBC57DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7BA5BB-21E7-4F32-927A-651CBBA2FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="2460" windowWidth="20910" windowHeight="11835" activeTab="2" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{17CFB7B9-3BA9-45B4-964D-8FEC39BC2CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chol Null" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="433">
   <si>
     <t>Measure</t>
   </si>
@@ -4688,127 +4688,6 @@
   </si>
   <si>
     <t>Group A</t>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
   </si>
   <si>
     <t>Group B</t>
@@ -4901,7 +4780,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5086,14 +4965,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="subscript"/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5360,97 +5231,97 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5468,31 +5339,31 @@
     <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5508,7 +5379,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5531,14 +5402,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10219,8 +10090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F0DCD-E304-4017-B7AF-97A0978AC45D}">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10293,28 +10164,28 @@
         <v>361</v>
       </c>
       <c r="I2" s="112" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="L2" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="M2" s="112" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="N2" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="O2" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="P2" s="113" t="s">
         <v>431</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>436</v>
-      </c>
-      <c r="L2" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="N2" s="113" t="s">
-        <v>434</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>437</v>
       </c>
       <c r="Q2" s="113" t="s">
         <v>47</v>
@@ -10329,7 +10200,7 @@
         <v>172</v>
       </c>
       <c r="U2" s="111" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12367,7 +12238,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12415,26 +12286,26 @@
       <c r="B2" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="F2" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="106" t="s">
+      <c r="H2" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="105" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="105" t="s">
-        <v>425</v>
-      </c>
-      <c r="I2" s="105" t="s">
-        <v>426</v>
+      <c r="I2" s="113" t="s">
+        <v>431</v>
       </c>
       <c r="J2" s="105" t="s">
         <v>47</v>
@@ -13568,7 +13439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673FAB6-1E3C-4258-9C8D-D9DBE685A34B}">
   <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
@@ -13657,28 +13528,28 @@
         <v>361</v>
       </c>
       <c r="I2" s="112" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="L2" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="M2" s="112" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="N2" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="O2" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="P2" s="113" t="s">
         <v>431</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>436</v>
-      </c>
-      <c r="L2" s="113" t="s">
-        <v>433</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="N2" s="113" t="s">
-        <v>434</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>437</v>
       </c>
       <c r="Q2" s="113" t="s">
         <v>47</v>
@@ -13693,7 +13564,7 @@
         <v>172</v>
       </c>
       <c r="U2" s="111" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14105,7 +13976,7 @@
       <c r="B9" s="51">
         <v>1.13273873352656</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="119">
         <v>0.71020712681328102</v>
       </c>
       <c r="D9" s="95">
@@ -17364,7 +17235,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17412,26 +17283,26 @@
       <c r="B2" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="F2" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="106" t="s">
+      <c r="H2" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="105" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="105" t="s">
-        <v>425</v>
-      </c>
-      <c r="I2" s="105" t="s">
-        <v>426</v>
+      <c r="I2" s="113" t="s">
+        <v>431</v>
       </c>
       <c r="J2" s="105" t="s">
         <v>47</v>
@@ -19549,31 +19420,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="H2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="119" t="s">
+      <c r="N2" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
     </row>
     <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
